--- a/tables/results.xlsx
+++ b/tables/results.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="withoutNoise" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Modelling" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="withoutNoise" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="withNoise" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,6 +415,285 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Permanent</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>row</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>col</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>sym</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>diag</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>meanMax</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.2391042738541544</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2062398244735585</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2339014764166682</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.2184560318144063</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>95 procentile</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.2352210769129321</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.20543257450812</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2297395892421695</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.2167079398816309</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Temporary</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>row</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>col</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>sym</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>diag</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>meanMax</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.06850253880147723</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.05927134450575933</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.06694556044514499</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.06238165641088672</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>95 procentile</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.06734550622279613</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.05905519527446693</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.06567922698186186</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.06158223119276754</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Shifted</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>row</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>col</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>sym</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>diag</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>meanMax</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.237174526731387</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2043612901295793</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.2319067564638912</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.216585620735383</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>95 procentile</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.2335827249185832</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2035613248694968</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2279274205230947</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.2142984060383397</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Outlier</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>row</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>col</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>sym</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>diag</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>meanMax</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.2336044345993694</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2069047859587524</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.2286934212741393</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.2161204705927736</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>95 procentile</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.2306755784365132</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2061419970371397</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.2254137170323581</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.2138792638731561</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1620,4 +1901,1396 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Permanent</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Row</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>meanMax</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>95 procentile</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Col</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>meanMax</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>95 procentile</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Sym</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>meanMax</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>95 procentile</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Diag</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>meanMax</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>95 procentile</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Num Points of overcoming</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>200</v>
+      </c>
+      <c r="C3" t="n">
+        <v>200</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Num Points of overcoming</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>200</v>
+      </c>
+      <c r="H3" t="n">
+        <v>200</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Num Points of overcoming</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>200</v>
+      </c>
+      <c r="M3" t="n">
+        <v>200</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Num Points of overcoming</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>200</v>
+      </c>
+      <c r="R3" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Point of overcoming</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>312.36</v>
+      </c>
+      <c r="C4" t="n">
+        <v>311.71</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Point of overcoming</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>315.69</v>
+      </c>
+      <c r="H4" t="n">
+        <v>315.32</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Point of overcoming</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>312.91</v>
+      </c>
+      <c r="M4" t="n">
+        <v>312.165</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Point of overcoming</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>309.195</v>
+      </c>
+      <c r="R4" t="n">
+        <v>308.79</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>X[Q]</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.194944860722159</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.194944860722159</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>X[Q]</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0.1979127747935414</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.1979127747935414</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>X[Q]</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>0.1903267983191507</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.1903267983191507</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>X[Q]</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.194979650328011</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.194979650328011</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>X[Q+10]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.2307810618805344</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.2307810618805344</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>X[Q+10]</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0.2010448188680421</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.2010448188680421</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>X[Q+10]</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>0.2234319325712292</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.2234319325712292</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>X[Q+10]</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.2283281596664832</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.2283281596664832</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>X[Q+20]</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.3148145138517279</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3148145138517279</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>X[Q+20]</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0.2140447030938971</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.2140447030938971</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>X[Q+20]</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>0.2975641411932901</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.2975641411932901</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>X[Q+20]</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.3055535158084478</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.3055535158084478</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>X[Q+30]</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.434476803170726</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.434476803170726</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>X[Q+30]</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0.2378870246039403</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.2378870246039403</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>X[Q+30]</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>0.4043567351576708</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.4043567351576708</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>X[Q+30]</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.4209837173627687</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.4209837173627687</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Temporary</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Row</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>meanMax</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>95 procentile</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Col</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>meanMax</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>95 procentile</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Sym</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>meanMax</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>95 procentile</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Diag</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>meanMax</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>95 procentile</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Num Points of overcoming</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>200</v>
+      </c>
+      <c r="C13" t="n">
+        <v>200</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Num Points of overcoming</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>200</v>
+      </c>
+      <c r="H13" t="n">
+        <v>200</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Num Points of overcoming</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>200</v>
+      </c>
+      <c r="M13" t="n">
+        <v>200</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Num Points of overcoming</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>200</v>
+      </c>
+      <c r="R13" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Point of overcoming</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>308.475</v>
+      </c>
+      <c r="C14" t="n">
+        <v>308.03</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Point of overcoming</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>309.07</v>
+      </c>
+      <c r="H14" t="n">
+        <v>308.88</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Point of overcoming</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>311.14</v>
+      </c>
+      <c r="M14" t="n">
+        <v>309.94</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Point of overcoming</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>305.64</v>
+      </c>
+      <c r="R14" t="n">
+        <v>305.34</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>X[Q]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.05637336441166008</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.05637336441166008</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>X[Q]</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0.05782305984044944</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.05782305984044944</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>X[Q]</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>0.05508736590833435</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.05508736590833435</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>X[Q]</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.05638504390274926</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.05638504390274926</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>X[Q+10]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.07680449957409527</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.07680449957409527</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>X[Q+10]</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0.06116816868918752</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.06116816868918752</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>X[Q+10]</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>0.07232626975650469</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.07232626975650469</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>X[Q+10]</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.078898011666615</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.078898011666615</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>X[Q+20]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.1028453663017668</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1028453663017668</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>X[Q+20]</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0.07346025966526082</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.07346025966526082</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>X[Q+20]</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>0.08680648374824507</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.08680648374824507</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>X[Q+20]</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.1094701806582905</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.1094701806582905</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>X[Q+30]</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.1180976613685471</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1180976613685471</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>X[Q+30]</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0.08614259339125858</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.08614259339125858</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>X[Q+30]</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>0.08996077011294228</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.08996077011294228</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>X[Q+30]</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.1284355475918781</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.1284355475918781</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Shifted</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Row</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>meanMax</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>95 procentile</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Col</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>meanMax</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>95 procentile</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Sym</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>meanMax</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>95 procentile</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Diag</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>meanMax</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>95 procentile</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Num Points of overcoming</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>200</v>
+      </c>
+      <c r="C23" t="n">
+        <v>200</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Num Points of overcoming</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>200</v>
+      </c>
+      <c r="H23" t="n">
+        <v>200</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Num Points of overcoming</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>200</v>
+      </c>
+      <c r="M23" t="n">
+        <v>200</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Num Points of overcoming</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>200</v>
+      </c>
+      <c r="R23" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Point of overcoming</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>312.08</v>
+      </c>
+      <c r="C24" t="n">
+        <v>311.395</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Point of overcoming</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>310.81</v>
+      </c>
+      <c r="H24" t="n">
+        <v>310.52</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Point of overcoming</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>313.8</v>
+      </c>
+      <c r="M24" t="n">
+        <v>312.815</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Point of overcoming</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>308.79</v>
+      </c>
+      <c r="R24" t="n">
+        <v>308.355</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>X[Q]</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.199385129411686</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.199385129411686</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>X[Q]</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0.1996890239219253</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.1996890239219253</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>X[Q]</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>0.1948435834587487</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.1948435834587487</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>X[Q]</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.1993035173556204</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.1993035173556204</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>X[Q+10]</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.231340780277464</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.231340780277464</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>X[Q+10]</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0.2053261474314187</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.2053261474314187</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>X[Q+10]</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>0.2216946066872499</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.2216946066872499</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>X[Q+10]</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.2276801679242956</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.2276801679242956</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>X[Q+20]</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.2978112250094918</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.2978112250094918</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>X[Q+20]</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0.2312243653257604</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.2312243653257604</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>X[Q+20]</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>0.2670783787650208</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.2670783787650208</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>X[Q+20]</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.2873796264356695</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.2873796264356695</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Outlier</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.3672073653246241</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.3672073653246241</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>X[Q+30]</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0.2789545864826627</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.2789545864826627</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>X[Q+30]</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>0.3008741054161643</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.3008741054161643</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>X[Q+30]</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.3598976599340064</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.3598976599340064</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Row</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>meanMax</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>95 procentile</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Col</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>meanMax</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>95 procentile</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Sym</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>meanMax</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>95 procentile</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Diag</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>meanMax</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>95 procentile</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Num Points of overcoming</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>200</v>
+      </c>
+      <c r="C33" t="n">
+        <v>200</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Num Points of overcoming</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>180</v>
+      </c>
+      <c r="H33" t="n">
+        <v>181</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Num Points of overcoming</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>200</v>
+      </c>
+      <c r="M33" t="n">
+        <v>200</v>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Num Points of overcoming</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>200</v>
+      </c>
+      <c r="R33" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Point of overcoming</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>302.25</v>
+      </c>
+      <c r="C34" t="n">
+        <v>302.185</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Point of overcoming</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>311.2388888888889</v>
+      </c>
+      <c r="H34" t="n">
+        <v>311.0662983425414</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Point of overcoming</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>302.31</v>
+      </c>
+      <c r="M34" t="n">
+        <v>302.275</v>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Point of overcoming</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>301.845</v>
+      </c>
+      <c r="R34" t="n">
+        <v>301.795</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>X[Q]</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.1981890111044756</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.1981890111044756</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>X[Q]</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0.2050229321716588</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.2049132443763763</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>X[Q]</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>0.1935341333450172</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.1935341333450172</v>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>X[Q]</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.1979919517874744</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.1979919517874744</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>X[Q+10]</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.4813599472979322</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.4813599472979322</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>X[Q+10]</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0.2317730018290809</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.2316082459157968</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>X[Q+10]</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>0.4618811906320026</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.4618811906320026</v>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>X[Q+10]</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.4855382393578278</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.4855382393578278</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>X[Q+20]</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.5928908099824146</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.5928908099824146</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>X[Q+20]</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0.2334051599360128</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.2332502021629883</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>X[Q+20]</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>0.5760045620232703</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.5760045620232703</v>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>X[Q+20]</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.5971148324902699</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.5971148324902699</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>X[Q+30]</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.6555200811701576</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.6555200811701576</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>X[Q+30]</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0.2267811097770753</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.2266476963616516</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>X[Q+30]</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>0.6440186213547419</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.6440186213547419</v>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>X[Q+30]</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.6598032017230372</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.6598032017230372</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/tables/results.xlsx
+++ b/tables/results.xlsx
@@ -778,10 +778,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="C3" t="n">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -789,10 +789,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="H3" t="n">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -800,10 +800,10 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>302</v>
+        <v>329</v>
       </c>
       <c r="M3" t="n">
-        <v>302</v>
+        <v>329</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>302</v>
+        <v>327</v>
       </c>
       <c r="R3" t="n">
-        <v>302</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4">
@@ -1077,43 +1077,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="C13" t="n">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>Point of overcoming</t>
         </is>
       </c>
-      <c r="G13" t="n">
-        <v>302</v>
-      </c>
-      <c r="H13" t="n">
-        <v>302</v>
-      </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>Point of overcoming</t>
         </is>
       </c>
-      <c r="L13" t="n">
-        <v>302</v>
-      </c>
-      <c r="M13" t="n">
-        <v>302</v>
-      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Point of overcoming</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>302</v>
+        <v>327</v>
       </c>
       <c r="R13" t="n">
-        <v>302</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14">
@@ -1133,22 +1121,10 @@
           <t>X[Q]</t>
         </is>
       </c>
-      <c r="G14" t="n">
-        <v>3.33066907387547e-16</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3.33066907387547e-16</v>
-      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>X[Q]</t>
         </is>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
@@ -1179,22 +1155,10 @@
           <t>X[Q+10]</t>
         </is>
       </c>
-      <c r="G15" t="n">
-        <v>0.003571256655593658</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.003571256655593658</v>
-      </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>X[Q+10]</t>
         </is>
-      </c>
-      <c r="L15" t="n">
-        <v>0.01515598145843722</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.01515598145843722</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
@@ -1225,22 +1189,10 @@
           <t>X[Q+20]</t>
         </is>
       </c>
-      <c r="G16" t="n">
-        <v>0.01851874918872343</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.01851874918872343</v>
-      </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>X[Q+20]</t>
         </is>
-      </c>
-      <c r="L16" t="n">
-        <v>0.03153547418523062</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.03153547418523062</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
@@ -1271,22 +1223,10 @@
           <t>X[Q+30]</t>
         </is>
       </c>
-      <c r="G17" t="n">
-        <v>0.03610503537199328</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.03610503537199328</v>
-      </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>X[Q+30]</t>
         </is>
-      </c>
-      <c r="L17" t="n">
-        <v>0.03602545401899948</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.03602545401899948</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
@@ -1376,43 +1316,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="C23" t="n">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
           <t>Point of overcoming</t>
         </is>
       </c>
-      <c r="G23" t="n">
-        <v>301</v>
-      </c>
-      <c r="H23" t="n">
-        <v>301</v>
-      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>Point of overcoming</t>
         </is>
       </c>
-      <c r="L23" t="n">
-        <v>301</v>
-      </c>
-      <c r="M23" t="n">
-        <v>301</v>
-      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Point of overcoming</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="R23" t="n">
-        <v>301</v>
+        <v>331</v>
       </c>
     </row>
     <row r="24">
@@ -1432,22 +1360,10 @@
           <t>X[Q]</t>
         </is>
       </c>
-      <c r="G24" t="n">
-        <v>2.86534206772604e-05</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2.86534206772604e-05</v>
-      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>X[Q]</t>
         </is>
-      </c>
-      <c r="L24" t="n">
-        <v>0.0007233287937621347</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.0007233287937621347</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
@@ -1478,22 +1394,10 @@
           <t>X[Q+10]</t>
         </is>
       </c>
-      <c r="G25" t="n">
-        <v>0.00506994762797075</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.00506994762797075</v>
-      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>X[Q+10]</t>
         </is>
-      </c>
-      <c r="L25" t="n">
-        <v>0.03444585922870569</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.03444585922870569</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
@@ -1524,22 +1428,10 @@
           <t>X[Q+20]</t>
         </is>
       </c>
-      <c r="G26" t="n">
-        <v>0.0302489427173489</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.0302489427173489</v>
-      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>X[Q+20]</t>
         </is>
-      </c>
-      <c r="L26" t="n">
-        <v>0.09610248649709552</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.09610248649709552</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
@@ -1570,22 +1462,10 @@
           <t>X[Q+30]</t>
         </is>
       </c>
-      <c r="G27" t="n">
-        <v>0.08547445816695243</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.08547445816695243</v>
-      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>X[Q+30]</t>
         </is>
-      </c>
-      <c r="L27" t="n">
-        <v>0.1507789796678952</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.1507789796678952</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
@@ -1675,32 +1555,26 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C33" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
           <t>Point of overcoming</t>
         </is>
       </c>
-      <c r="G33" t="n">
-        <v>302</v>
-      </c>
-      <c r="H33" t="n">
-        <v>302</v>
-      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>Point of overcoming</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="M33" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
@@ -1708,10 +1582,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="R33" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="34">
@@ -1731,12 +1605,6 @@
           <t>X[Q]</t>
         </is>
       </c>
-      <c r="G34" t="n">
-        <v>2.220446049250313e-16</v>
-      </c>
-      <c r="H34" t="n">
-        <v>2.220446049250313e-16</v>
-      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>X[Q]</t>
@@ -1777,12 +1645,6 @@
           <t>X[Q+10]</t>
         </is>
       </c>
-      <c r="G35" t="n">
-        <v>0.03600000043698748</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.03600000043698748</v>
-      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>X[Q+10]</t>
@@ -1823,12 +1685,6 @@
           <t>X[Q+20]</t>
         </is>
       </c>
-      <c r="G36" t="n">
-        <v>0.03993265723796668</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.03993265723796668</v>
-      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>X[Q+20]</t>
@@ -1868,12 +1724,6 @@
         <is>
           <t>X[Q+30]</t>
         </is>
-      </c>
-      <c r="G37" t="n">
-        <v>0.03185894778150467</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.03185894778150467</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>

--- a/tables/results.xlsx
+++ b/tables/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\ivank\Documents\Education\magistracy\ResearchWork\code\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1249DC-0B40-4686-9D74-058249166A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F497CA4-98F7-41F4-936E-FF9E853768B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6930" yWindow="780" windowWidth="16005" windowHeight="10080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelling" sheetId="1" r:id="rId1"/>
@@ -88,6 +88,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -117,8 +120,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,7 +428,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B15" sqref="B15:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,9 +646,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:C14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -849,7 +859,7 @@
         <v>0.29622747533819438</v>
       </c>
       <c r="C7">
-        <v>0.29622747533819438</v>
+        <v>0.29622747533819399</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
@@ -952,10 +962,10 @@
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>0</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>0</v>
       </c>
       <c r="F14" t="s">
@@ -967,10 +977,10 @@
       <c r="P14" t="s">
         <v>15</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="1">
         <v>0</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="1">
         <v>0</v>
       </c>
     </row>
@@ -978,10 +988,10 @@
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>1.8615792879779769E-2</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>1.8615792879779769E-2</v>
       </c>
       <c r="F15" t="s">
@@ -993,10 +1003,10 @@
       <c r="P15" t="s">
         <v>16</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="1">
         <v>1.8615792879779769E-2</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="1">
         <v>1.8615792879779769E-2</v>
       </c>
     </row>
@@ -1004,10 +1014,10 @@
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>4.9109728698940702E-2</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>4.9109728698940702E-2</v>
       </c>
       <c r="F16" t="s">
@@ -1019,10 +1029,10 @@
       <c r="P16" t="s">
         <v>17</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="1">
         <v>4.9109728698940702E-2</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="1">
         <v>4.9109728698940702E-2</v>
       </c>
     </row>
@@ -1030,10 +1040,10 @@
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>7.0291564833432796E-2</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>7.0291564833432796E-2</v>
       </c>
       <c r="F17" t="s">
@@ -1045,10 +1055,10 @@
       <c r="P17" t="s">
         <v>18</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="1">
         <v>7.0291564833432796E-2</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="1">
         <v>7.0291564833432796E-2</v>
       </c>
     </row>
@@ -1125,10 +1135,10 @@
       <c r="A24" t="s">
         <v>15</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>7.5235109717874948E-4</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>7.5235109717874948E-4</v>
       </c>
       <c r="F24" t="s">
@@ -1140,10 +1150,10 @@
       <c r="P24" t="s">
         <v>15</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" s="1">
         <v>7.5235109717874948E-4</v>
       </c>
-      <c r="R24">
+      <c r="R24" s="1">
         <v>7.5235109717874948E-4</v>
       </c>
     </row>
@@ -1151,10 +1161,10 @@
       <c r="A25" t="s">
         <v>16</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>3.9190216854849143E-2</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>3.9190216854849143E-2</v>
       </c>
       <c r="F25" t="s">
@@ -1166,10 +1176,10 @@
       <c r="P25" t="s">
         <v>16</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="1">
         <v>3.9190216854849802E-2</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="1">
         <v>3.9190216854849802E-2</v>
       </c>
     </row>
@@ -1177,10 +1187,10 @@
       <c r="A26" t="s">
         <v>17</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>0.1214604194580601</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>0.1214604194580601</v>
       </c>
       <c r="F26" t="s">
@@ -1192,10 +1202,10 @@
       <c r="P26" t="s">
         <v>17</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" s="1">
         <v>0.12146041945806089</v>
       </c>
-      <c r="R26">
+      <c r="R26" s="1">
         <v>0.12146041945806089</v>
       </c>
     </row>
@@ -1203,10 +1213,10 @@
       <c r="A27" t="s">
         <v>18</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>0.21606994182495101</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>0.21606994182495101</v>
       </c>
       <c r="F27" t="s">
@@ -1218,10 +1228,10 @@
       <c r="P27" t="s">
         <v>18</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" s="1">
         <v>0.21606994182495179</v>
       </c>
-      <c r="R27">
+      <c r="R27" s="1">
         <v>0.21606994182495179</v>
       </c>
     </row>
@@ -1316,19 +1326,19 @@
       <c r="K34" t="s">
         <v>15</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="1">
         <v>0</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="1">
         <v>0</v>
       </c>
       <c r="P34" t="s">
         <v>15</v>
       </c>
-      <c r="Q34">
+      <c r="Q34" s="1">
         <v>0</v>
       </c>
-      <c r="R34">
+      <c r="R34" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1336,10 +1346,10 @@
       <c r="A35" t="s">
         <v>16</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
         <v>0.40124435060640812</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>0.40124435060640812</v>
       </c>
       <c r="F35" t="s">
@@ -1348,19 +1358,19 @@
       <c r="K35" t="s">
         <v>16</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="1">
         <v>0.38061949953161728</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="1">
         <v>0.38061949953161728</v>
       </c>
       <c r="P35" t="s">
         <v>16</v>
       </c>
-      <c r="Q35">
+      <c r="Q35" s="1">
         <v>0.40124435060640812</v>
       </c>
-      <c r="R35">
+      <c r="R35" s="1">
         <v>0.40124435060640812</v>
       </c>
     </row>
@@ -1368,10 +1378,10 @@
       <c r="A36" t="s">
         <v>17</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
         <v>0.54699076576981365</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>0.54699076576981365</v>
       </c>
       <c r="F36" t="s">
@@ -1380,19 +1390,19 @@
       <c r="K36" t="s">
         <v>17</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="1">
         <v>0.52881936743879221</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="1">
         <v>0.52881936743879221</v>
       </c>
       <c r="P36" t="s">
         <v>17</v>
       </c>
-      <c r="Q36">
+      <c r="Q36" s="1">
         <v>0.54699076576981365</v>
       </c>
-      <c r="R36">
+      <c r="R36" s="1">
         <v>0.54699076576981365</v>
       </c>
     </row>
@@ -1400,10 +1410,10 @@
       <c r="A37" t="s">
         <v>18</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
         <v>0.62234327068464768</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>0.62234327068464768</v>
       </c>
       <c r="F37" t="s">
@@ -1412,24 +1422,25 @@
       <c r="K37" t="s">
         <v>18</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="1">
         <v>0.61008347199295199</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="1">
         <v>0.61008347199295199</v>
       </c>
       <c r="P37" t="s">
         <v>18</v>
       </c>
-      <c r="Q37">
+      <c r="Q37" s="1">
         <v>0.62234327068464768</v>
       </c>
-      <c r="R37">
+      <c r="R37" s="1">
         <v>0.62234327068464768</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1437,11 +1448,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1566,37 +1581,37 @@
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>0.194944860722159</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>0.194944860722159</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>0.19791277479354141</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>0.19791277479354141</v>
       </c>
       <c r="K5" t="s">
         <v>15</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="1">
         <v>0.1903267983191507</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="1">
         <v>0.1903267983191507</v>
       </c>
       <c r="P5" t="s">
         <v>15</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="1">
         <v>0.19497965032801101</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="1">
         <v>0.19497965032801101</v>
       </c>
     </row>
@@ -1604,37 +1619,37 @@
       <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>0.2307810618805344</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>0.2307810618805344</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>0.2010448188680421</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>0.2010448188680421</v>
       </c>
       <c r="K6" t="s">
         <v>16</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="1">
         <v>0.2234319325712292</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="1">
         <v>0.2234319325712292</v>
       </c>
       <c r="P6" t="s">
         <v>16</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="1">
         <v>0.2283281596664832</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="1">
         <v>0.2283281596664832</v>
       </c>
     </row>
@@ -1642,37 +1657,37 @@
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>0.31481451385172787</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>0.31481451385172787</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>0.21404470309389709</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>0.21404470309389709</v>
       </c>
       <c r="K7" t="s">
         <v>17</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="1">
         <v>0.29756414119329011</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="1">
         <v>0.29756414119329011</v>
       </c>
       <c r="P7" t="s">
         <v>17</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="1">
         <v>0.30555351580844781</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="1">
         <v>0.30555351580844781</v>
       </c>
     </row>
@@ -1680,37 +1695,37 @@
       <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>0.43447680317072601</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>0.43447680317072601</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>0.23788702460394029</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>0.23788702460394029</v>
       </c>
       <c r="K8" t="s">
         <v>18</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="1">
         <v>0.40435673515767079</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="1">
         <v>0.40435673515767079</v>
       </c>
       <c r="P8" t="s">
         <v>18</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="1">
         <v>0.42098371736276868</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="1">
         <v>0.42098371736276868</v>
       </c>
     </row>
@@ -1837,37 +1852,37 @@
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>5.6373364411660083E-2</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>5.6373364411660083E-2</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>5.7823059840449442E-2</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <v>5.7823059840449442E-2</v>
       </c>
       <c r="K15" t="s">
         <v>15</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="1">
         <v>5.5087365908334351E-2</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="1">
         <v>5.5087365908334351E-2</v>
       </c>
       <c r="P15" t="s">
         <v>15</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="1">
         <v>5.638504390274926E-2</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="1">
         <v>5.638504390274926E-2</v>
       </c>
     </row>
@@ -1875,37 +1890,37 @@
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>7.680449957409527E-2</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>7.680449957409527E-2</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <v>6.1168168689187521E-2</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="1">
         <v>6.1168168689187521E-2</v>
       </c>
       <c r="K16" t="s">
         <v>16</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="1">
         <v>7.2326269756504691E-2</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="1">
         <v>7.2326269756504691E-2</v>
       </c>
       <c r="P16" t="s">
         <v>16</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="1">
         <v>7.8898011666615003E-2</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="1">
         <v>7.8898011666615003E-2</v>
       </c>
     </row>
@@ -1913,37 +1928,37 @@
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>0.1028453663017668</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>0.1028453663017668</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>7.3460259665260819E-2</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>7.3460259665260819E-2</v>
       </c>
       <c r="K17" t="s">
         <v>17</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="1">
         <v>8.6806483748245067E-2</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="1">
         <v>8.6806483748245067E-2</v>
       </c>
       <c r="P17" t="s">
         <v>17</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="1">
         <v>0.10947018065829051</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="1">
         <v>0.10947018065829051</v>
       </c>
     </row>
@@ -1951,39 +1966,43 @@
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>0.1180976613685471</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>0.1180976613685471</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <v>8.6142593391258585E-2</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="1">
         <v>8.6142593391258585E-2</v>
       </c>
       <c r="K18" t="s">
         <v>18</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="1">
         <v>8.9960770112942276E-2</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="1">
         <v>8.9960770112942276E-2</v>
       </c>
       <c r="P18" t="s">
         <v>18</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="1">
         <v>0.12843554759187811</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="1">
         <v>0.12843554759187811</v>
       </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -2108,37 +2127,37 @@
       <c r="A25" t="s">
         <v>15</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>0.19938512941168601</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>0.19938512941168601</v>
       </c>
       <c r="F25" t="s">
         <v>15</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="1">
         <v>0.19968902392192531</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="1">
         <v>0.19968902392192531</v>
       </c>
       <c r="K25" t="s">
         <v>15</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="1">
         <v>0.19484358345874869</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="1">
         <v>0.19484358345874869</v>
       </c>
       <c r="P25" t="s">
         <v>15</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="1">
         <v>0.19930351735562041</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="1">
         <v>0.19930351735562041</v>
       </c>
     </row>
@@ -2146,37 +2165,37 @@
       <c r="A26" t="s">
         <v>16</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>0.23134078027746399</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>0.23134078027746399</v>
       </c>
       <c r="F26" t="s">
         <v>16</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="1">
         <v>0.20532614743141869</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="1">
         <v>0.20532614743141869</v>
       </c>
       <c r="K26" t="s">
         <v>16</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="1">
         <v>0.22169460668724991</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="1">
         <v>0.22169460668724991</v>
       </c>
       <c r="P26" t="s">
         <v>16</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" s="1">
         <v>0.2276801679242956</v>
       </c>
-      <c r="R26">
+      <c r="R26" s="1">
         <v>0.2276801679242956</v>
       </c>
     </row>
@@ -2184,37 +2203,37 @@
       <c r="A27" t="s">
         <v>17</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>0.29781122500949181</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>0.29781122500949181</v>
       </c>
       <c r="F27" t="s">
         <v>17</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="1">
         <v>0.23122436532576041</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="1">
         <v>0.23122436532576041</v>
       </c>
       <c r="K27" t="s">
         <v>17</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="1">
         <v>0.26707837876502077</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="1">
         <v>0.26707837876502077</v>
       </c>
       <c r="P27" t="s">
         <v>17</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" s="1">
         <v>0.2873796264356695</v>
       </c>
-      <c r="R27">
+      <c r="R27" s="1">
         <v>0.2873796264356695</v>
       </c>
     </row>
@@ -2222,37 +2241,37 @@
       <c r="A28" t="s">
         <v>18</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>0.36720736532462411</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>0.36720736532462411</v>
       </c>
       <c r="F28" t="s">
         <v>18</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="1">
         <v>0.27895458648266269</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="1">
         <v>0.27895458648266269</v>
       </c>
       <c r="K28" t="s">
         <v>18</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="1">
         <v>0.30087410541616427</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="1">
         <v>0.30087410541616427</v>
       </c>
       <c r="P28" t="s">
         <v>18</v>
       </c>
-      <c r="Q28">
+      <c r="Q28" s="1">
         <v>0.35989765993400641</v>
       </c>
-      <c r="R28">
+      <c r="R28" s="1">
         <v>0.35989765993400641</v>
       </c>
     </row>
@@ -2379,37 +2398,37 @@
       <c r="A35" t="s">
         <v>15</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
         <v>0.19818901110447559</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>0.19818901110447559</v>
       </c>
       <c r="F35" t="s">
         <v>15</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="1">
         <v>0.20502293217165879</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="1">
         <v>0.20491324437637631</v>
       </c>
       <c r="K35" t="s">
         <v>15</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="1">
         <v>0.19353413334501721</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="1">
         <v>0.19353413334501721</v>
       </c>
       <c r="P35" t="s">
         <v>15</v>
       </c>
-      <c r="Q35">
+      <c r="Q35" s="1">
         <v>0.19799195178747439</v>
       </c>
-      <c r="R35">
+      <c r="R35" s="1">
         <v>0.19799195178747439</v>
       </c>
     </row>
@@ -2417,37 +2436,37 @@
       <c r="A36" t="s">
         <v>16</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
         <v>0.48135994729793219</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>0.48135994729793219</v>
       </c>
       <c r="F36" t="s">
         <v>16</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="1">
         <v>0.23177300182908089</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="1">
         <v>0.23160824591579679</v>
       </c>
       <c r="K36" t="s">
         <v>16</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="1">
         <v>0.46188119063200261</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="1">
         <v>0.46188119063200261</v>
       </c>
       <c r="P36" t="s">
         <v>16</v>
       </c>
-      <c r="Q36">
+      <c r="Q36" s="1">
         <v>0.48553823935782781</v>
       </c>
-      <c r="R36">
+      <c r="R36" s="1">
         <v>0.48553823935782781</v>
       </c>
     </row>
@@ -2455,37 +2474,37 @@
       <c r="A37" t="s">
         <v>17</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
         <v>0.59289080998241461</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>0.59289080998241461</v>
       </c>
       <c r="F37" t="s">
         <v>17</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="1">
         <v>0.2334051599360128</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="1">
         <v>0.23325020216298831</v>
       </c>
       <c r="K37" t="s">
         <v>17</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="1">
         <v>0.57600456202327033</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="1">
         <v>0.57600456202327033</v>
       </c>
       <c r="P37" t="s">
         <v>17</v>
       </c>
-      <c r="Q37">
+      <c r="Q37" s="1">
         <v>0.59711483249026986</v>
       </c>
-      <c r="R37">
+      <c r="R37" s="1">
         <v>0.59711483249026986</v>
       </c>
     </row>
@@ -2493,41 +2512,42 @@
       <c r="A38" t="s">
         <v>18</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="1">
         <v>0.65552008117015759</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
         <v>0.65552008117015759</v>
       </c>
       <c r="F38" t="s">
         <v>18</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="1">
         <v>0.2267811097770753</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="1">
         <v>0.22664769636165161</v>
       </c>
       <c r="K38" t="s">
         <v>18</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="1">
         <v>0.64401862135474186</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="1">
         <v>0.64401862135474186</v>
       </c>
       <c r="P38" t="s">
         <v>18</v>
       </c>
-      <c r="Q38">
+      <c r="Q38" s="1">
         <v>0.65980320172303719</v>
       </c>
-      <c r="R38">
+      <c r="R38" s="1">
         <v>0.65980320172303719</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tables/results.xlsx
+++ b/tables/results.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\ivank\Documents\Education\magistracy\ResearchWork\code\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F497CA4-98F7-41F4-936E-FF9E853768B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A403223F-FAC0-4FF4-9BD2-8ABED7ECDE23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6930" yWindow="780" windowWidth="16005" windowHeight="10080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelling" sheetId="1" r:id="rId1"/>
     <sheet name="withoutNoise" sheetId="2" r:id="rId2"/>
     <sheet name="withNoise" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -88,8 +88,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -120,9 +121,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1446,24 +1448,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:R38"/>
+  <dimension ref="A1:AM38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5703125" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="22" max="22" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="24.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1501,7 +1510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1539,7 +1548,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1576,8 +1585,16 @@
       <c r="R4">
         <v>308.79000000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1614,8 +1631,16 @@
       <c r="R5" s="1">
         <v>0.19497965032801101</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="2"/>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1653,7 +1678,7 @@
         <v>0.2283281596664832</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1691,7 +1716,7 @@
         <v>0.30555351580844781</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1729,12 +1754,12 @@
         <v>0.42098371736276868</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1772,7 +1797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1810,7 +1835,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1848,7 +1873,7 @@
         <v>305.33999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1886,7 +1911,7 @@
         <v>5.638504390274926E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>

--- a/tables/results.xlsx
+++ b/tables/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\ivank\Documents\Education\magistracy\ResearchWork\code\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A403223F-FAC0-4FF4-9BD2-8ABED7ECDE23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259825B2-F87D-487F-A71F-3D91C667847B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1450,8 +1450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AM38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="Q61" sqref="Q61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tables/results.xlsx
+++ b/tables/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\ivank\Documents\Education\magistracy\ResearchWork\code\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\ivank\Documents\Education\magistracy\ResearchWork\researchWork\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259825B2-F87D-487F-A71F-3D91C667847B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921E9969-1273-40F1-9C03-424E8CBE1A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelling" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="26">
   <si>
     <t>Permanent</t>
   </si>
@@ -82,6 +82,24 @@
   </si>
   <si>
     <t>Num Points of overcoming</t>
+  </si>
+  <si>
+    <t>permanent</t>
+  </si>
+  <si>
+    <t>HeterType</t>
+  </si>
+  <si>
+    <t>StatType</t>
+  </si>
+  <si>
+    <t>temporary</t>
+  </si>
+  <si>
+    <t>shifted</t>
+  </si>
+  <si>
+    <t>outlier</t>
   </si>
 </sst>
 </file>
@@ -427,15 +445,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:V15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:E15"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -451,8 +475,41 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -468,8 +525,41 @@
       <c r="E2">
         <v>0.21845603181440629</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>0.23910427385415439</v>
+      </c>
+      <c r="L2">
+        <v>0.20623982447355849</v>
+      </c>
+      <c r="M2">
+        <v>0.2339014764166682</v>
+      </c>
+      <c r="N2">
+        <v>0.21845603181440629</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2">
+        <v>0.23910427385415439</v>
+      </c>
+      <c r="T2">
+        <v>0.20623982447355849</v>
+      </c>
+      <c r="U2">
+        <v>0.2339014764166682</v>
+      </c>
+      <c r="V2">
+        <v>0.21845603181440629</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -485,8 +575,61 @@
       <c r="E3">
         <v>0.2167079398816309</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3">
+        <v>0.23522107691293209</v>
+      </c>
+      <c r="L3">
+        <v>0.20543257450812</v>
+      </c>
+      <c r="M3">
+        <v>0.2297395892421695</v>
+      </c>
+      <c r="N3">
+        <v>0.2167079398816309</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3">
+        <v>6.8502538801477234E-2</v>
+      </c>
+      <c r="T3">
+        <v>5.9271344505759327E-2</v>
+      </c>
+      <c r="U3">
+        <v>6.6945560445144991E-2</v>
+      </c>
+      <c r="V3">
+        <v>6.2381656410886721E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4">
+        <v>0.237174526731387</v>
+      </c>
+      <c r="T4">
+        <v>0.20436129012957929</v>
+      </c>
+      <c r="U4">
+        <v>0.23190675646389119</v>
+      </c>
+      <c r="V4">
+        <v>0.21658562073538301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -502,8 +645,41 @@
       <c r="E5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>25</v>
+      </c>
+      <c r="R5" t="s">
+        <v>5</v>
+      </c>
+      <c r="S5">
+        <v>0.23360443459936939</v>
+      </c>
+      <c r="T5">
+        <v>0.20690478595875239</v>
+      </c>
+      <c r="U5">
+        <v>0.2286934212741393</v>
+      </c>
+      <c r="V5">
+        <v>0.21612047059277359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -519,8 +695,23 @@
       <c r="E6">
         <v>6.2381656410886721E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>6.8502538801477234E-2</v>
+      </c>
+      <c r="L6">
+        <v>5.9271344505759327E-2</v>
+      </c>
+      <c r="M6">
+        <v>6.6945560445144991E-2</v>
+      </c>
+      <c r="N6">
+        <v>6.2381656410886721E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -536,8 +727,43 @@
       <c r="E7">
         <v>6.1582231192767539E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7">
+        <v>6.7345506222796128E-2</v>
+      </c>
+      <c r="L7">
+        <v>5.9055195274466933E-2</v>
+      </c>
+      <c r="M7">
+        <v>6.5679226981861863E-2</v>
+      </c>
+      <c r="N7">
+        <v>6.1582231192767539E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S8">
+        <v>0.23522107691293209</v>
+      </c>
+      <c r="T8">
+        <v>0.20543257450812</v>
+      </c>
+      <c r="U8">
+        <v>0.2297395892421695</v>
+      </c>
+      <c r="V8">
+        <v>0.2167079398816309</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -553,8 +779,41 @@
       <c r="E9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>23</v>
+      </c>
+      <c r="R9" t="s">
+        <v>6</v>
+      </c>
+      <c r="S9">
+        <v>6.7345506222796128E-2</v>
+      </c>
+      <c r="T9">
+        <v>5.9055195274466933E-2</v>
+      </c>
+      <c r="U9">
+        <v>6.5679226981861863E-2</v>
+      </c>
+      <c r="V9">
+        <v>6.1582231192767539E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -570,8 +829,41 @@
       <c r="E10">
         <v>0.21658562073538301</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>0.237174526731387</v>
+      </c>
+      <c r="L10">
+        <v>0.20436129012957929</v>
+      </c>
+      <c r="M10">
+        <v>0.23190675646389119</v>
+      </c>
+      <c r="N10">
+        <v>0.21658562073538301</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>24</v>
+      </c>
+      <c r="R10" t="s">
+        <v>6</v>
+      </c>
+      <c r="S10">
+        <v>0.2335827249185832</v>
+      </c>
+      <c r="T10">
+        <v>0.2035613248694968</v>
+      </c>
+      <c r="U10">
+        <v>0.2279274205230947</v>
+      </c>
+      <c r="V10">
+        <v>0.21429840603833969</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -587,8 +879,41 @@
       <c r="E11">
         <v>0.21429840603833969</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11">
+        <v>0.2335827249185832</v>
+      </c>
+      <c r="L11">
+        <v>0.2035613248694968</v>
+      </c>
+      <c r="M11">
+        <v>0.2279274205230947</v>
+      </c>
+      <c r="N11">
+        <v>0.21429840603833969</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>25</v>
+      </c>
+      <c r="R11" t="s">
+        <v>6</v>
+      </c>
+      <c r="S11">
+        <v>0.23067557843651321</v>
+      </c>
+      <c r="T11">
+        <v>0.2061419970371397</v>
+      </c>
+      <c r="U11">
+        <v>0.2254137170323581</v>
+      </c>
+      <c r="V11">
+        <v>0.21387926387315609</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -604,8 +929,23 @@
       <c r="E13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
+        <v>2</v>
+      </c>
+      <c r="M13" t="s">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -621,8 +961,23 @@
       <c r="E14">
         <v>0.21612047059277359</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>0.23360443459936939</v>
+      </c>
+      <c r="L14">
+        <v>0.20690478595875239</v>
+      </c>
+      <c r="M14">
+        <v>0.2286934212741393</v>
+      </c>
+      <c r="N14">
+        <v>0.21612047059277359</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -636,6 +991,21 @@
         <v>0.2254137170323581</v>
       </c>
       <c r="E15">
+        <v>0.21387926387315609</v>
+      </c>
+      <c r="J15" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15">
+        <v>0.23067557843651321</v>
+      </c>
+      <c r="L15">
+        <v>0.2061419970371397</v>
+      </c>
+      <c r="M15">
+        <v>0.2254137170323581</v>
+      </c>
+      <c r="N15">
         <v>0.21387926387315609</v>
       </c>
     </row>
@@ -1450,7 +1820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AM38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="Q61" sqref="Q61"/>
     </sheetView>
   </sheetViews>

--- a/tables/results.xlsx
+++ b/tables/results.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="withoutNoise(Zeros)" sheetId="1" state="visible" r:id="rId1"/>
@@ -45,15 +45,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -1299,7 +1299,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -1404,10 +1404,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -1415,10 +1415,10 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>300</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1439,10 +1439,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>251</v>
+        <v>315</v>
       </c>
       <c r="C4" t="n">
-        <v>243</v>
+        <v>315</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -1450,10 +1450,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>226</v>
+        <v>319</v>
       </c>
       <c r="H4" t="n">
-        <v>222</v>
+        <v>319</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -1461,10 +1461,10 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>250</v>
+        <v>317</v>
       </c>
       <c r="M4" t="n">
-        <v>241</v>
+        <v>317</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -1472,10 +1472,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>272</v>
+        <v>317</v>
       </c>
       <c r="R4" t="n">
-        <v>269</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5">
@@ -1485,10 +1485,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1336271850557049</v>
+        <v>0.3682516279914182</v>
       </c>
       <c r="C5" t="n">
-        <v>0.131587597673325</v>
+        <v>0.3682516279914182</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -1496,10 +1496,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.115613015303099</v>
+        <v>0.3365793184849595</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1152830201120436</v>
+        <v>0.3365793184849595</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -1507,10 +1507,10 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0.1310588139976689</v>
+        <v>0.3541403224750045</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1287276678759848</v>
+        <v>0.3541403224750045</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
@@ -1518,10 +1518,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>0.1278910429256994</v>
+        <v>0.3702177655912989</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1268243711640448</v>
+        <v>0.3702177655912989</v>
       </c>
     </row>
     <row r="6">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1092737075714472</v>
+        <v>0.3168204791125362</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1092737075714472</v>
+        <v>0.3168204791125362</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -1542,10 +1542,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0.1068582705728093</v>
+        <v>0.3115666075211672</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1068582705728093</v>
+        <v>0.3115666075211672</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -1553,10 +1553,10 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0.106532473885361</v>
+        <v>0.3050373792247096</v>
       </c>
       <c r="M6" t="n">
-        <v>0.106532473885361</v>
+        <v>0.3050373792247096</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -1564,10 +1564,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>0.1094327831310903</v>
+        <v>0.3102445139350735</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1094327831310903</v>
+        <v>0.3102445139350735</v>
       </c>
     </row>
     <row r="7">
@@ -1577,10 +1577,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1471382450645569</v>
+        <v>0.3454661780039219</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1471382450645569</v>
+        <v>0.3454661780039219</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -1588,10 +1588,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.1094069807748988</v>
+        <v>0.3203176194378692</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1094069807748988</v>
+        <v>0.3203176194378692</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1599,10 +1599,10 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>0.1421646556131286</v>
+        <v>0.3260299548348254</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1421646556131286</v>
+        <v>0.3260299548348254</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
@@ -1610,10 +1610,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>0.1472872474711067</v>
+        <v>0.3334226567514175</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1472872474711067</v>
+        <v>0.3334226567514175</v>
       </c>
     </row>
     <row r="8">
@@ -1623,10 +1623,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2389992953820031</v>
+        <v>0.4181096571365135</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2389992953820031</v>
+        <v>0.4181096571365135</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -1634,10 +1634,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.1198617322029273</v>
+        <v>0.3429924688150453</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1198617322029273</v>
+        <v>0.3429924688150453</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1645,10 +1645,10 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0.2261434236156248</v>
+        <v>0.3812278710110255</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2261434236156248</v>
+        <v>0.3812278710110255</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
@@ -1656,10 +1656,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>0.2389137196339465</v>
+        <v>0.406240123553355</v>
       </c>
       <c r="R8" t="n">
-        <v>0.2389137196339465</v>
+        <v>0.406240123553355</v>
       </c>
     </row>
     <row r="9">
@@ -1669,10 +1669,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.370755470059127</v>
+        <v>0.5249966263602495</v>
       </c>
       <c r="C9" t="n">
-        <v>0.370755470059127</v>
+        <v>0.5249966263602495</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -1680,10 +1680,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.1426204778802223</v>
+        <v>0.3749838044039929</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1426204778802223</v>
+        <v>0.3749838044039929</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1691,10 +1691,10 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>0.3451010251432028</v>
+        <v>0.4714844389721592</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3451010251432028</v>
+        <v>0.4714844389721592</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>0.3705047356702413</v>
+        <v>0.5092001439957552</v>
       </c>
       <c r="R9" t="n">
-        <v>0.3705047356702413</v>
+        <v>0.5092001439957552</v>
       </c>
     </row>
     <row r="11">
@@ -1784,10 +1784,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1795,10 +1795,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1806,10 +1806,10 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
@@ -1817,10 +1817,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1829,44 +1829,26 @@
           <t>detected Q</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>239</v>
-      </c>
-      <c r="C14" t="n">
-        <v>228</v>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>detected Q</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>207</v>
+        <v>309</v>
       </c>
       <c r="H14" t="n">
-        <v>206</v>
+        <v>309</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>detected Q</t>
         </is>
       </c>
-      <c r="L14" t="n">
-        <v>238</v>
-      </c>
-      <c r="M14" t="n">
-        <v>229</v>
-      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>detected Q</t>
         </is>
-      </c>
-      <c r="Q14" t="n">
-        <v>271</v>
-      </c>
-      <c r="R14" t="n">
-        <v>267</v>
       </c>
     </row>
     <row r="15">
@@ -1875,44 +1857,26 @@
           <t>X[detected Q]</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>0.03661126270456579</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.03604824321193945</v>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>X[detected Q]</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.03210796166661504</v>
+        <v>0.09833771329982344</v>
       </c>
       <c r="H15" t="n">
-        <v>0.03202319748989225</v>
+        <v>0.09833771329982344</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>X[detected Q]</t>
         </is>
       </c>
-      <c r="L15" t="n">
-        <v>0.03582668138810828</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.03522440752324192</v>
-      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>X[detected Q]</t>
         </is>
-      </c>
-      <c r="Q15" t="n">
-        <v>0.03489077272777746</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0.0344671423193121</v>
       </c>
     </row>
     <row r="16">
@@ -1921,44 +1885,26 @@
           <t>X[Q]</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>0.02948827041817214</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.02948827041817214</v>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
           <t>X[Q]</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.03020149777709021</v>
+        <v>0.09744885984402729</v>
       </c>
       <c r="H16" t="n">
-        <v>0.03020149777709021</v>
+        <v>0.09744885984402729</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>X[Q]</t>
         </is>
       </c>
-      <c r="L16" t="n">
-        <v>0.02863261643363351</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.02863261643363351</v>
-      </c>
       <c r="P16" t="inlineStr">
         <is>
           <t>X[Q]</t>
         </is>
-      </c>
-      <c r="Q16" t="n">
-        <v>0.02941738571233362</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0.02941738571233362</v>
       </c>
     </row>
     <row r="17">
@@ -1967,44 +1913,26 @@
           <t>X[Q+10]</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>0.04552891070276798</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.04552891070276798</v>
-      </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>X[Q+10]</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.03355591882298424</v>
+        <v>0.09865230652996715</v>
       </c>
       <c r="H17" t="n">
-        <v>0.03355591882298424</v>
+        <v>0.09865230652996715</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>X[Q+10]</t>
         </is>
       </c>
-      <c r="L17" t="n">
-        <v>0.04143156509943048</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.04143156509943048</v>
-      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>X[Q+10]</t>
         </is>
-      </c>
-      <c r="Q17" t="n">
-        <v>0.04559056271909809</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0.04559056271909809</v>
       </c>
     </row>
     <row r="18">
@@ -2013,44 +1941,26 @@
           <t>X[Q+20]</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>0.07116927204065178</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.07116927204065178</v>
-      </c>
       <c r="F18" t="inlineStr">
         <is>
           <t>X[Q+20]</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.04786930056001201</v>
+        <v>0.103738749027541</v>
       </c>
       <c r="H18" t="n">
-        <v>0.04786930056001201</v>
+        <v>0.103738749027541</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>X[Q+20]</t>
         </is>
       </c>
-      <c r="L18" t="n">
-        <v>0.05346674803721677</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.05346674803721677</v>
-      </c>
       <c r="P18" t="inlineStr">
         <is>
           <t>X[Q+20]</t>
         </is>
-      </c>
-      <c r="Q18" t="n">
-        <v>0.07161292013138665</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0.07161292013138665</v>
       </c>
     </row>
     <row r="19">
@@ -2059,44 +1969,26 @@
           <t>X[Q+30]</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>0.08765138268243339</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.08765138268243339</v>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
           <t>X[Q+30]</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.06477428327917278</v>
+        <v>0.1124029437260363</v>
       </c>
       <c r="H19" t="n">
-        <v>0.06477428327917278</v>
+        <v>0.1124029437260363</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>X[Q+30]</t>
         </is>
       </c>
-      <c r="L19" t="n">
-        <v>0.05364257892194303</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.05364257892194303</v>
-      </c>
       <c r="P19" t="inlineStr">
         <is>
           <t>X[Q+30]</t>
         </is>
-      </c>
-      <c r="Q19" t="n">
-        <v>0.08835745359204396</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0.08835745359204396</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2067,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -2186,10 +2078,10 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2197,10 +2089,10 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
@@ -2208,10 +2100,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
-        <v>300</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -2221,10 +2113,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>248</v>
+        <v>321</v>
       </c>
       <c r="C24" t="n">
-        <v>241</v>
+        <v>321</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -2232,10 +2124,10 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>226</v>
+        <v>317</v>
       </c>
       <c r="H24" t="n">
-        <v>224</v>
+        <v>317</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2243,10 +2135,10 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>248</v>
+        <v>324</v>
       </c>
       <c r="M24" t="n">
-        <v>240</v>
+        <v>324</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
@@ -2254,10 +2146,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>268</v>
+        <v>321</v>
       </c>
       <c r="R24" t="n">
-        <v>264</v>
+        <v>321</v>
       </c>
     </row>
     <row r="25">
@@ -2267,10 +2159,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1354967883314812</v>
+        <v>0.4227656678156054</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1336660496970337</v>
+        <v>0.4227656678156054</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -2278,10 +2170,10 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.1174454444682225</v>
+        <v>0.299458065200943</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1171069417519257</v>
+        <v>0.299458065200943</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2289,10 +2181,10 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>0.1329402449109842</v>
+        <v>0.4212354526015869</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1308827279401311</v>
+        <v>0.4212354526015869</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
@@ -2300,10 +2192,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>0.1282939498318897</v>
+        <v>0.4269479913749729</v>
       </c>
       <c r="R25" t="n">
-        <v>0.1271159122375707</v>
+        <v>0.4269479913749729</v>
       </c>
     </row>
     <row r="26">
@@ -2313,10 +2205,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1106220479797892</v>
+        <v>0.2987248676327076</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1106220479797892</v>
+        <v>0.2987248676327076</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -2324,10 +2216,10 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.108553143798188</v>
+        <v>0.2890956395623571</v>
       </c>
       <c r="H26" t="n">
-        <v>0.108553143798188</v>
+        <v>0.2890956395623571</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2335,10 +2227,10 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>0.1075144905547892</v>
+        <v>0.2950644373003867</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1075144905547892</v>
+        <v>0.2950644373003867</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
@@ -2346,10 +2238,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>0.1106788724948783</v>
+        <v>0.3068967194980962</v>
       </c>
       <c r="R26" t="n">
-        <v>0.1106788724948783</v>
+        <v>0.3068967194980962</v>
       </c>
     </row>
     <row r="27">
@@ -2359,10 +2251,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1449713992841809</v>
+        <v>0.341340086664082</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1449713992841809</v>
+        <v>0.341340086664082</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -2370,10 +2262,10 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.113207325916464</v>
+        <v>0.2906143702842051</v>
       </c>
       <c r="H27" t="n">
-        <v>0.113207325916464</v>
+        <v>0.2906143702842051</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2381,10 +2273,10 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>0.1376545766793205</v>
+        <v>0.3366356737312335</v>
       </c>
       <c r="M27" t="n">
-        <v>0.1376545766793205</v>
+        <v>0.3366356737312335</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
@@ -2392,10 +2284,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>0.1448082539660781</v>
+        <v>0.3412496909807363</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1448082539660781</v>
+        <v>0.3412496909807363</v>
       </c>
     </row>
     <row r="28">
@@ -2405,10 +2297,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.2181364570340404</v>
+        <v>0.4227656678156054</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2181364570340404</v>
+        <v>0.4227656678156054</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -2416,10 +2308,10 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.1362434076331988</v>
+        <v>0.3093910989488623</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1362434076331988</v>
+        <v>0.3093910989488623</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2427,10 +2319,10 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>0.1922736665779703</v>
+        <v>0.4046819940261956</v>
       </c>
       <c r="M28" t="n">
-        <v>0.1922736665779703</v>
+        <v>0.4046819940261956</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
@@ -2438,10 +2330,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>0.2172790154272673</v>
+        <v>0.4269479913749729</v>
       </c>
       <c r="R28" t="n">
-        <v>0.2172790154272673</v>
+        <v>0.4269479913749729</v>
       </c>
     </row>
     <row r="29">
@@ -2451,10 +2343,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.301566116207692</v>
+        <v>0.4889918066695439</v>
       </c>
       <c r="C29" t="n">
-        <v>0.301566116207692</v>
+        <v>0.4889918066695439</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -2462,10 +2354,10 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.185735908291267</v>
+        <v>0.3573615022090503</v>
       </c>
       <c r="H29" t="n">
-        <v>0.185735908291267</v>
+        <v>0.3573615022090503</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -2473,10 +2365,10 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>0.2401785306586778</v>
+        <v>0.4391346547275181</v>
       </c>
       <c r="M29" t="n">
-        <v>0.2401785306586778</v>
+        <v>0.4391346547275181</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
@@ -2484,10 +2376,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>0.3004791256636925</v>
+        <v>0.4970956151324866</v>
       </c>
       <c r="R29" t="n">
-        <v>0.3004791256636925</v>
+        <v>0.4970956151324866</v>
       </c>
     </row>
     <row r="31">
@@ -2566,10 +2458,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2577,10 +2469,10 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>295</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>295</v>
+        <v>1</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -2588,10 +2480,10 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="M33" t="n">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
@@ -2599,10 +2491,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="R33" t="n">
-        <v>300</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -2612,10 +2504,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>245</v>
+        <v>301</v>
       </c>
       <c r="C34" t="n">
-        <v>238</v>
+        <v>301</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2623,10 +2515,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>218</v>
+        <v>302</v>
       </c>
       <c r="H34" t="n">
-        <v>216</v>
+        <v>302</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -2634,10 +2526,10 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>243</v>
+        <v>301</v>
       </c>
       <c r="M34" t="n">
-        <v>234</v>
+        <v>301</v>
       </c>
       <c r="P34" t="inlineStr">
         <is>
@@ -2645,10 +2537,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="R34" t="n">
-        <v>267</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35">
@@ -2658,10 +2550,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1468067900993836</v>
+        <v>0.3689462875445774</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1442681904612892</v>
+        <v>0.3689462875445774</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2669,10 +2561,10 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.1167301623509919</v>
+        <v>0.3008920740896739</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1164165099472844</v>
+        <v>0.3008920740896739</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -2680,10 +2572,10 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>0.1426528344296576</v>
+        <v>0.362194342889096</v>
       </c>
       <c r="M35" t="n">
-        <v>0.1398152094726223</v>
+        <v>0.362194342889096</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
@@ -2691,10 +2583,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>0.1439895406895236</v>
+        <v>0.3683226893272854</v>
       </c>
       <c r="R35" t="n">
-        <v>0.142203023142364</v>
+        <v>0.3683226893272854</v>
       </c>
     </row>
     <row r="36">
@@ -2704,10 +2596,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1076540224493067</v>
+        <v>0.3689462875445774</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1076540224493067</v>
+        <v>0.3689462875445774</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2715,10 +2607,10 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.1076240755554891</v>
+        <v>0.2976043959491497</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1076240755554891</v>
+        <v>0.2976043959491497</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -2726,10 +2618,10 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>0.1047568978384157</v>
+        <v>0.362194342889096</v>
       </c>
       <c r="M36" t="n">
-        <v>0.1047568978384157</v>
+        <v>0.362194342889096</v>
       </c>
       <c r="P36" t="inlineStr">
         <is>
@@ -2737,10 +2629,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>0.1076538058244363</v>
+        <v>0.3683226893272854</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1076538058244363</v>
+        <v>0.3683226893272854</v>
       </c>
     </row>
     <row r="37">
@@ -2750,10 +2642,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.436922357761829</v>
+        <v>0.5787591771712002</v>
       </c>
       <c r="C37" t="n">
-        <v>0.436922357761829</v>
+        <v>0.5787591771712002</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2761,10 +2653,10 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.1397328810536119</v>
+        <v>0.3297408486497317</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1397328810536119</v>
+        <v>0.3297408486497317</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -2772,10 +2664,10 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>0.4158184644117096</v>
+        <v>0.5575875087237343</v>
       </c>
       <c r="M37" t="n">
-        <v>0.4158184644117096</v>
+        <v>0.5575875087237343</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
@@ -2783,10 +2675,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>0.4370843695824703</v>
+        <v>0.5788666847196775</v>
       </c>
       <c r="R37" t="n">
-        <v>0.4370843695824703</v>
+        <v>0.5788666847196775</v>
       </c>
     </row>
     <row r="38">
@@ -2796,10 +2688,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.5660171418128948</v>
+        <v>0.672578924629065</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5660171418128948</v>
+        <v>0.672578924629065</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2807,10 +2699,10 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.1428248266522762</v>
+        <v>0.3503710891419775</v>
       </c>
       <c r="H38" t="n">
-        <v>0.1428248266522762</v>
+        <v>0.3503710891419775</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -2818,10 +2710,10 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>0.547500504476642</v>
+        <v>0.645728050577818</v>
       </c>
       <c r="M38" t="n">
-        <v>0.547500504476642</v>
+        <v>0.645728050577818</v>
       </c>
       <c r="P38" t="inlineStr">
         <is>
@@ -2829,10 +2721,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>0.5661876174509182</v>
+        <v>0.6748712472303002</v>
       </c>
       <c r="R38" t="n">
-        <v>0.5661876174509182</v>
+        <v>0.6748712472303002</v>
       </c>
     </row>
     <row r="39">
@@ -2842,10 +2734,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.6349307193992602</v>
+        <v>0.7134315322994433</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6349307193992602</v>
+        <v>0.7134315322994433</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2853,10 +2745,10 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.1356347824219999</v>
+        <v>0.3580315072305604</v>
       </c>
       <c r="H39" t="n">
-        <v>0.1356347824219999</v>
+        <v>0.3580315072305604</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -2864,10 +2756,10 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>0.6221314177641081</v>
+        <v>0.6847073456176235</v>
       </c>
       <c r="M39" t="n">
-        <v>0.6221314177641081</v>
+        <v>0.6847073456176235</v>
       </c>
       <c r="P39" t="inlineStr">
         <is>
@@ -2875,13 +2767,13 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>0.6349924260564055</v>
+        <v>0.7152976832089486</v>
       </c>
       <c r="R39" t="n">
-        <v>0.6349924260564055</v>
+        <v>0.7152976832089486</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/tables/results.xlsx
+++ b/tables/results.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="withoutNoise(Zeros)" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="withNoise" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="withoutNoise" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2776,4 +2777,1367 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Permanent</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Row</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>meanMax</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>95 procentile</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Col</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>meanMax</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>95 procentile</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Sym</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>meanMax</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>95 procentile</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Diag</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>meanMax</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>95 procentile</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>detected Q</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>320</v>
+      </c>
+      <c r="C3" t="n">
+        <v>320</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>detected Q</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>345</v>
+      </c>
+      <c r="H3" t="n">
+        <v>345</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>detected Q</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>321</v>
+      </c>
+      <c r="M3" t="n">
+        <v>321</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>detected Q</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>320</v>
+      </c>
+      <c r="R3" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>X[detected Q]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1342170097025869</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1342170097025869</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>X[detected Q]</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0.11555677078688</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.11555677078688</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>X[detected Q]</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>0.13537866310688</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.13537866310688</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>X[detected Q]</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.1342170097025869</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.1342170097025869</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>X[Q]</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>X[Q]</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>3.33066907387547e-16</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.33066907387547e-16</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>X[Q]</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>X[Q]</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>X[Q+10]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.04279477936109699</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.04279477936109699</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>X[Q+10]</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0.002814970646814907</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.002814970646814907</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>X[Q+10]</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>0.04017875468484156</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.04017875468484156</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>X[Q+10]</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.04279477936109621</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.04279477936109621</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>X[Q+20]</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.1467660293104299</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1467660293104299</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>X[Q+20]</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0.01399465360388963</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.01399465360388963</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>X[Q+20]</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>0.13537866310688</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.13537866310688</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>X[Q+20]</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.1467660293104299</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.1467660293104299</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>X[Q+30]</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.2962274753381944</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2962274753381944</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>X[Q+30]</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0.03851810974545178</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.03851810974545178</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>X[Q+30]</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>0.2706094918002625</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.2706094918002625</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>X[Q+30]</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.2962274753381944</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.2962274753381944</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Temporary</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Row</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>meanMax</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>95 procentile</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Col</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>meanMax</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>95 procentile</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Sym</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>meanMax</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>95 procentile</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Diag</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>meanMax</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>95 procentile</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>detected Q</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>317</v>
+      </c>
+      <c r="C13" t="n">
+        <v>317</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>detected Q</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>328</v>
+      </c>
+      <c r="H13" t="n">
+        <v>328</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>detected Q</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>327</v>
+      </c>
+      <c r="M13" t="n">
+        <v>326</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>detected Q</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>317</v>
+      </c>
+      <c r="R13" t="n">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>X[detected Q]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.03707928203643374</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.03707928203643374</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>X[detected Q]</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03157617079948227</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.03157617079948227</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>X[detected Q]</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>0.03548776563014733</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.03506577684399226</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>X[detected Q]</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.03707928203643374</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.03707928203643374</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>X[Q]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>X[Q]</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>3.33066907387547e-16</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.33066907387547e-16</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>X[Q]</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>X[Q]</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>X[Q+10]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.01861579287977977</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.01861579287977977</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>X[Q+10]</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0.003571256655593658</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.003571256655593658</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>X[Q+10]</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>0.01515598145843722</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.01515598145843722</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>X[Q+10]</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.01861579287977977</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.01861579287977977</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>X[Q+20]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.0491097286989407</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0491097286989407</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>X[Q+20]</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0.01851874918872343</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.01851874918872343</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>X[Q+20]</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>0.03153547418523062</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.03153547418523062</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>X[Q+20]</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.0491097286989407</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.0491097286989407</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>X[Q+30]</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.0702915648334328</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0702915648334328</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>X[Q+30]</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0.03610503537199328</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.03610503537199328</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>X[Q+30]</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>0.03602545401899948</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.03602545401899948</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>X[Q+30]</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.0702915648334328</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.0702915648334328</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Shifted</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Row</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>meanMax</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>95 procentile</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Col</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>meanMax</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>95 procentile</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Sym</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>meanMax</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>95 procentile</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Diag</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>meanMax</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>95 procentile</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>detected Q</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>323</v>
+      </c>
+      <c r="C23" t="n">
+        <v>322</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>detected Q</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>336</v>
+      </c>
+      <c r="H23" t="n">
+        <v>336</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>detected Q</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>327</v>
+      </c>
+      <c r="M23" t="n">
+        <v>327</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>detected Q</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>322</v>
+      </c>
+      <c r="R23" t="n">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>X[detected Q]</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.1402351913652281</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.1307779326788252</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>X[detected Q]</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0.1207158117705951</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.1207158117705951</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>X[detected Q]</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>0.1313806402270817</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.1313806402270817</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>X[detected Q]</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.1307779326788259</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.1307779326788259</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>X[Q]</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.0007523510971787495</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0007523510971787495</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>X[Q]</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>2.86534206772604e-05</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.86534206772604e-05</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>X[Q]</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>0.0007233287937621347</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.0007233287937621347</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>X[Q]</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.0007523510971787495</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.0007523510971787495</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>X[Q+10]</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.03919021685484914</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.03919021685484914</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>X[Q+10]</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0.00506994762797075</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.00506994762797075</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>X[Q+10]</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>0.03444585922870569</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.03444585922870569</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>X[Q+10]</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.0391902168548498</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.0391902168548498</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>X[Q+20]</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1214604194580601</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.1214604194580601</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>X[Q+20]</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0302489427173489</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.0302489427173489</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>X[Q+20]</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>0.09610248649709552</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.09610248649709552</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>X[Q+20]</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.1214604194580609</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.1214604194580609</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>X[Q+30]</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.216069941824951</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.216069941824951</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>X[Q+30]</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0.08547445816695243</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.08547445816695243</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>X[Q+30]</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>0.1507789796678952</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.1507789796678952</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>X[Q+30]</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.2160699418249518</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.2160699418249518</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Outlier</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Row</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>meanMax</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>95 procentile</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Col</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>meanMax</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>95 procentile</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Sym</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>meanMax</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>95 procentile</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Diag</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>meanMax</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>95 procentile</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>detected Q</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>304</v>
+      </c>
+      <c r="C33" t="n">
+        <v>304</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>detected Q</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>detected Q</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>304</v>
+      </c>
+      <c r="M33" t="n">
+        <v>304</v>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>detected Q</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>303</v>
+      </c>
+      <c r="R33" t="n">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>X[detected Q]</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.1788523141860221</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.1788523141860221</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>X[detected Q]</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>X[detected Q]</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>0.1670063551111131</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.1670063551111131</v>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>X[detected Q]</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.1281271525241513</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.1281271525241513</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>X[Q]</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>X[Q]</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>X[Q]</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>X[Q]</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>X[Q+10]</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.4012443506064081</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.4012443506064081</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>X[Q+10]</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>X[Q+10]</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>0.3806194995316173</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.3806194995316173</v>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>X[Q+10]</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.4012443506064081</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.4012443506064081</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>X[Q+20]</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.5469907657698136</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.5469907657698136</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>X[Q+20]</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>X[Q+20]</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>0.5288193674387922</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.5288193674387922</v>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>X[Q+20]</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.5469907657698136</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.5469907657698136</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>X[Q+30]</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.6223432706846477</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.6223432706846477</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>X[Q+30]</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>X[Q+30]</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>0.610083471992952</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.610083471992952</v>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>X[Q+30]</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.6223432706846477</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.6223432706846477</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>